--- a/apiprogramsandexcelfiles/xmlparsingresults.xlsx
+++ b/apiprogramsandexcelfiles/xmlparsingresults.xlsx
@@ -343,13 +343,134 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="7"/>
+      <i val="true"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="12"/>
+      <i val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -372,8 +493,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -386,411 +529,411 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.453125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.2421875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.9765625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.3046875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="9.93359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="20.40625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.40234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.25390625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="10.06640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="10.0078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="5">
         <v>29</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="6">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="6">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="6">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="6">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="6">
         <v>29</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="7">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="7">
         <v>29</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="8">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="8">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="8">
         <v>43</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="8">
         <v>44</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" t="s" s="8">
         <v>45</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="9">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="9">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="9">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="9">
         <v>33</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="9">
         <v>49</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" t="s" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="10">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="10">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="10">
         <v>52</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="10">
         <v>53</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="10">
         <v>54</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" t="s" s="10">
         <v>29</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="11">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="11">
         <v>56</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="11">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="11">
         <v>58</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="11">
         <v>59</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" t="s" s="11">
         <v>29</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="12">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="12">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="12">
         <v>62</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" t="s" s="12">
         <v>63</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="s" s="12">
         <v>64</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" t="s" s="12">
         <v>29</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="13">
         <v>65</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="13">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="13">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="s" s="13">
         <v>69</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" t="s" s="13">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="14">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="14">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="14">
         <v>72</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" t="s" s="14">
         <v>73</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="s" s="14">
         <v>74</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" t="s" s="14">
         <v>29</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="15">
         <v>75</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="15">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="15">
         <v>77</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" t="s" s="15">
         <v>78</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="s" s="15">
         <v>79</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" t="s" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="16">
         <v>80</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="16">
         <v>81</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="16">
         <v>82</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" t="s" s="16">
         <v>83</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="s" s="16">
         <v>84</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" t="s" s="16">
         <v>11</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="17">
         <v>85</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="17">
         <v>86</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="17">
         <v>87</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" t="s" s="17">
         <v>88</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="s" s="17">
         <v>89</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" t="s" s="17">
         <v>11</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="18">
         <v>90</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="18">
         <v>91</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="18">
         <v>92</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" t="s" s="18">
         <v>93</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="s" s="18">
         <v>94</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" t="s" s="18">
         <v>95</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="19">
         <v>96</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="19">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="19">
         <v>98</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" t="s" s="19">
         <v>99</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="s" s="19">
         <v>100</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" t="s" s="19">
         <v>101</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="20">
         <v>102</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="20">
         <v>103</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="20">
         <v>104</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" t="s" s="20">
         <v>105</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="s" s="20">
         <v>106</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" t="s" s="20">
         <v>107</v>
       </c>
     </row>
